--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-Thbd.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/F2-Thbd.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H2">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I2">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J2">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>20.19138166666667</v>
+        <v>35.991783</v>
       </c>
       <c r="N2">
-        <v>60.574145</v>
+        <v>107.975349</v>
       </c>
       <c r="O2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="P2">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="Q2">
-        <v>11.30292681272278</v>
+        <v>1.561791439719</v>
       </c>
       <c r="R2">
-        <v>101.726341314505</v>
+        <v>14.056122957471</v>
       </c>
       <c r="S2">
-        <v>0.1302329444047714</v>
+        <v>0.02728918952747939</v>
       </c>
       <c r="T2">
-        <v>0.1302329444047714</v>
+        <v>0.02728918952747939</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H3">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I3">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J3">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>148.464943</v>
       </c>
       <c r="O3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="P3">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="Q3">
-        <v>27.70304698455189</v>
+        <v>2.147446423866333</v>
       </c>
       <c r="R3">
-        <v>249.327422860967</v>
+        <v>19.327017814797</v>
       </c>
       <c r="S3">
-        <v>0.3191960310422302</v>
+        <v>0.03752234195337887</v>
       </c>
       <c r="T3">
-        <v>0.3191960310422302</v>
+        <v>0.03752234195337887</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5597896666666667</v>
+        <v>0.04339299999999999</v>
       </c>
       <c r="H4">
-        <v>1.679369</v>
+        <v>0.130179</v>
       </c>
       <c r="I4">
-        <v>0.4918833646099291</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="J4">
-        <v>0.491883364609929</v>
+        <v>0.0698021577815419</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.582150000000001</v>
+        <v>6.58215</v>
       </c>
       <c r="N4">
         <v>19.74645</v>
       </c>
       <c r="O4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="P4">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="Q4">
-        <v>3.684619554450001</v>
+        <v>0.2856192349499999</v>
       </c>
       <c r="R4">
-        <v>33.16157599005</v>
+        <v>2.57057311455</v>
       </c>
       <c r="S4">
-        <v>0.04245438916292749</v>
+        <v>0.004990626300683644</v>
       </c>
       <c r="T4">
-        <v>0.04245438916292749</v>
+        <v>0.004990626300683644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1.261615</v>
       </c>
       <c r="I5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J5">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>20.19138166666667</v>
+        <v>35.991783</v>
       </c>
       <c r="N5">
-        <v>60.574145</v>
+        <v>107.975349</v>
       </c>
       <c r="O5">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="P5">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="Q5">
-        <v>8.491249993797222</v>
+        <v>15.135924436515</v>
       </c>
       <c r="R5">
-        <v>76.421249944175</v>
+        <v>136.223319928635</v>
       </c>
       <c r="S5">
-        <v>0.09783664945299432</v>
+        <v>0.2644700823152038</v>
       </c>
       <c r="T5">
-        <v>0.09783664945299432</v>
+        <v>0.2644700823152038</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1.261615</v>
       </c>
       <c r="I6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J6">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>148.464943</v>
       </c>
       <c r="O6">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="P6">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="Q6">
         <v>20.81173322921611</v>
@@ -818,10 +818,10 @@
         <v>187.305599062945</v>
       </c>
       <c r="S6">
-        <v>0.2397939349263582</v>
+        <v>0.3636435173377587</v>
       </c>
       <c r="T6">
-        <v>0.2397939349263582</v>
+        <v>0.3636435173377587</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1.261615</v>
       </c>
       <c r="I7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="J7">
-        <v>0.3695241671379879</v>
+        <v>0.6764796878879081</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.582150000000001</v>
+        <v>6.58215</v>
       </c>
       <c r="N7">
         <v>19.74645</v>
       </c>
       <c r="O7">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="P7">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="Q7">
-        <v>2.76804639075</v>
+        <v>2.768046390749999</v>
       </c>
       <c r="R7">
         <v>24.91241751675</v>
       </c>
       <c r="S7">
-        <v>0.03189358275863539</v>
+        <v>0.0483660882349457</v>
       </c>
       <c r="T7">
-        <v>0.03189358275863539</v>
+        <v>0.0483660882349457</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>0.473177</v>
       </c>
       <c r="I8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J8">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.19138166666667</v>
+        <v>35.991783</v>
       </c>
       <c r="N8">
-        <v>60.574145</v>
+        <v>107.975349</v>
       </c>
       <c r="O8">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="P8">
-        <v>0.2647638724437206</v>
+        <v>0.3909505149237033</v>
       </c>
       <c r="Q8">
-        <v>3.184699134296112</v>
+        <v>5.676827968197</v>
       </c>
       <c r="R8">
-        <v>28.662292208665</v>
+        <v>51.091451713773</v>
       </c>
       <c r="S8">
-        <v>0.03669427858595491</v>
+        <v>0.09919124308102013</v>
       </c>
       <c r="T8">
-        <v>0.0366942785859549</v>
+        <v>0.09919124308102013</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>0.473177</v>
       </c>
       <c r="I9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J9">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>148.464943</v>
       </c>
       <c r="O9">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="P9">
-        <v>0.6489262577427425</v>
+        <v>0.537552751174421</v>
       </c>
       <c r="Q9">
         <v>7.805577370434556</v>
@@ -1004,10 +1004,10 @@
         <v>70.25019633391101</v>
       </c>
       <c r="S9">
-        <v>0.08993629177415408</v>
+        <v>0.1363868918832835</v>
       </c>
       <c r="T9">
-        <v>0.08993629177415406</v>
+        <v>0.1363868918832835</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>0.473177</v>
       </c>
       <c r="I10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="J10">
-        <v>0.138592468252083</v>
+        <v>0.2537181543305499</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.582150000000001</v>
+        <v>6.58215</v>
       </c>
       <c r="N10">
         <v>19.74645</v>
       </c>
       <c r="O10">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="P10">
-        <v>0.08630986981353692</v>
+        <v>0.07149673390187571</v>
       </c>
       <c r="Q10">
         <v>1.03817399685</v>
       </c>
       <c r="R10">
-        <v>9.343565971650001</v>
+        <v>9.343565971649999</v>
       </c>
       <c r="S10">
-        <v>0.01196189789197403</v>
+        <v>0.01814001936624636</v>
       </c>
       <c r="T10">
-        <v>0.01196189789197403</v>
+        <v>0.01814001936624636</v>
       </c>
     </row>
   </sheetData>
